--- a/data/results/validation/NMC/NMCData_comparison.xlsx
+++ b/data/results/validation/NMC/NMCData_comparison.xlsx
@@ -821,15 +821,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="42.625" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
@@ -877,10 +878,10 @@
         <v>0.60382199999999997</v>
       </c>
       <c r="C2">
-        <v>1.35127</v>
+        <v>1.3105599999999999</v>
       </c>
       <c r="D2">
-        <v>1.3181099999999999</v>
+        <v>1.3045</v>
       </c>
       <c r="E2">
         <v>1.34595</v>
@@ -893,14 +894,14 @@
       </c>
       <c r="J2">
         <f>ABS(C2-I2)/C2 * 100</f>
-        <v>3.7483256492040722</v>
+        <v>0.7584544011720058</v>
       </c>
       <c r="K2">
         <v>1.30142</v>
       </c>
       <c r="L2">
         <f>ABS(D2-K2)/D2 * 100</f>
-        <v>1.2662069174803221</v>
+        <v>0.23610578765810442</v>
       </c>
       <c r="M2">
         <v>1.3388500000000001</v>
@@ -918,10 +919,10 @@
         <v>0.60058299999999998</v>
       </c>
       <c r="C3">
-        <v>1.38853</v>
+        <v>1.3120400000000001</v>
       </c>
       <c r="D3">
-        <v>1.36757</v>
+        <v>1.3391599999999999</v>
       </c>
       <c r="E3">
         <v>1.3002499999999999</v>
@@ -934,14 +935,14 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="0">ABS(C3-I3)/C3 * 100</f>
-        <v>5.8356679365948114</v>
+        <v>0.3460260357915908</v>
       </c>
       <c r="K3">
         <v>1.32626</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="1">ABS(D3-K3)/D3 * 100</f>
-        <v>3.0206863268424988</v>
+        <v>0.96329042086083161</v>
       </c>
       <c r="M3">
         <v>1.2894000000000001</v>
@@ -959,10 +960,10 @@
         <v>0.61413700000000004</v>
       </c>
       <c r="C4">
-        <v>1.2819</v>
+        <v>1.2941100000000001</v>
       </c>
       <c r="D4">
-        <v>1.2974699999999999</v>
+        <v>1.3074300000000001</v>
       </c>
       <c r="E4">
         <v>1.3227100000000001</v>
@@ -975,14 +976,14 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>6.6307824323271494E-2</v>
+        <v>0.87782336895627389</v>
       </c>
       <c r="K4">
         <v>1.29996</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.19191195172143505</v>
+        <v>0.57134990018586751</v>
       </c>
       <c r="M4">
         <v>1.3156399999999999</v>
@@ -1000,10 +1001,10 @@
         <v>0.612398</v>
       </c>
       <c r="C5">
-        <v>1.3105599999999999</v>
+        <v>1.30976</v>
       </c>
       <c r="D5">
-        <v>1.3045</v>
+        <v>1.3099099999999999</v>
       </c>
       <c r="E5">
         <v>1.32599</v>
@@ -1016,14 +1017,14 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.26706140886337421</v>
+        <v>0.2061446371854328</v>
       </c>
       <c r="K5">
         <v>1.30877</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0.32732847834419287</v>
+        <v>8.7028879846700838E-2</v>
       </c>
       <c r="M5">
         <v>1.32094</v>
@@ -1041,10 +1042,10 @@
         <v>0.64351199999999997</v>
       </c>
       <c r="C6">
-        <v>1.31366</v>
+        <v>1.2819</v>
       </c>
       <c r="D6">
-        <v>1.3073699999999999</v>
+        <v>1.2974699999999999</v>
       </c>
       <c r="E6">
         <v>1.2718</v>
@@ -1057,14 +1058,14 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>3.2634014889697456</v>
+        <v>0.86668226850768015</v>
       </c>
       <c r="K6">
         <v>1.29417</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1.0096606163519035</v>
+        <v>0.25434114083561538</v>
       </c>
       <c r="M6">
         <v>1.2657099999999999</v>
@@ -1082,10 +1083,10 @@
         <v>0.61329999999999996</v>
       </c>
       <c r="C7">
-        <v>1.4296599999999999</v>
+        <v>1.32148</v>
       </c>
       <c r="D7">
-        <v>1.3867499999999999</v>
+        <v>1.2957099999999999</v>
       </c>
       <c r="E7">
         <v>1.31426</v>
@@ -1098,14 +1099,14 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>7.7102248086957621</v>
+        <v>0.15512909767835195</v>
       </c>
       <c r="K7">
         <v>1.2874099999999999</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>7.1635118081846043</v>
+        <v>0.64057543740497291</v>
       </c>
       <c r="M7">
         <v>1.3093300000000001</v>
@@ -1123,10 +1124,10 @@
         <v>0.624749</v>
       </c>
       <c r="C8">
-        <v>1.3966400000000001</v>
+        <v>1.32572</v>
       </c>
       <c r="D8">
-        <v>1.3471599999999999</v>
+        <v>1.30962</v>
       </c>
       <c r="E8">
         <v>1.31027</v>
@@ -1139,14 +1140,14 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>5.8640737770649611</v>
+        <v>0.82822918866728934</v>
       </c>
       <c r="K8">
         <v>1.2978499999999999</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>3.6602927640369347</v>
+        <v>0.89873398390373227</v>
       </c>
       <c r="M8">
         <v>1.3056300000000001</v>
@@ -1164,10 +1165,10 @@
         <v>0.56668200000000002</v>
       </c>
       <c r="C9">
-        <v>1.35419</v>
+        <v>1.4103399999999999</v>
       </c>
       <c r="D9">
-        <v>1.38198</v>
+        <v>1.3693</v>
       </c>
       <c r="E9">
         <v>1.33674</v>
@@ -1180,14 +1181,14 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>2.9530568088672915</v>
+        <v>1.1458229930371366</v>
       </c>
       <c r="K9">
         <v>1.36548</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.19393913081231</v>
+        <v>0.27897465858467352</v>
       </c>
       <c r="M9">
         <v>1.32422</v>
@@ -1205,10 +1206,10 @@
         <v>0.61806499999999998</v>
       </c>
       <c r="C10">
-        <v>1.6227</v>
+        <v>1.31366</v>
       </c>
       <c r="D10">
-        <v>1.5977600000000001</v>
+        <v>1.3073699999999999</v>
       </c>
       <c r="E10">
         <v>1.33358</v>
@@ -1221,14 +1222,14 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>19.322117458556722</v>
+        <v>0.34255439002481225</v>
       </c>
       <c r="K10">
         <v>1.3047500000000001</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>18.338799319046664</v>
+        <v>0.20040233445771627</v>
       </c>
       <c r="M10">
         <v>1.32826</v>
@@ -1246,10 +1247,10 @@
         <v>0.57274000000000003</v>
       </c>
       <c r="C11">
-        <v>1.4885200000000001</v>
+        <v>1.3594900000000001</v>
       </c>
       <c r="D11">
-        <v>1.46577</v>
+        <v>1.34474</v>
       </c>
       <c r="E11">
         <v>1.38208</v>
@@ -1262,14 +1263,14 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>8.8416682342192239</v>
+        <v>0.18977704874622298</v>
       </c>
       <c r="K11">
         <v>1.33995</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>8.5838842383184293</v>
+        <v>0.35620268602109489</v>
       </c>
       <c r="M11">
         <v>1.3740699999999999</v>
@@ -1287,10 +1288,10 @@
         <v>0.53395700000000001</v>
       </c>
       <c r="C12">
-        <v>1.61372</v>
+        <v>1.38134</v>
       </c>
       <c r="D12">
-        <v>1.57623</v>
+        <v>1.3859300000000001</v>
       </c>
       <c r="E12">
         <v>1.4237500000000001</v>
@@ -1303,14 +1304,14 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>14.552090821208147</v>
+        <v>0.17736400886096568</v>
       </c>
       <c r="K12">
         <v>1.3734900000000001</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>12.862336080394353</v>
+        <v>0.89759223048783165</v>
       </c>
       <c r="M12">
         <v>1.41316</v>
@@ -1328,10 +1329,10 @@
         <v>0.59405799999999997</v>
       </c>
       <c r="C13">
-        <v>1.6540600000000001</v>
+        <v>1.3161400000000001</v>
       </c>
       <c r="D13">
-        <v>1.6097600000000001</v>
+        <v>1.3206</v>
       </c>
       <c r="E13">
         <v>1.3562399999999999</v>
@@ -1344,14 +1345,14 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>20.743503863221406</v>
+        <v>0.39433494916954331</v>
       </c>
       <c r="K13">
         <v>1.30982</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>18.632591193718323</v>
+        <v>0.816295623201576</v>
       </c>
       <c r="M13">
         <v>1.3503099999999999</v>
@@ -1369,10 +1370,10 @@
         <v>0.522173</v>
       </c>
       <c r="C14">
-        <v>1.5909199999999999</v>
+        <v>1.4390499999999999</v>
       </c>
       <c r="D14">
-        <v>1.61954</v>
+        <v>1.38585</v>
       </c>
       <c r="E14">
         <v>1.4549399999999999</v>
@@ -1385,14 +1386,14 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>9.8804465340809049</v>
+        <v>0.3696883360550357</v>
       </c>
       <c r="K14">
         <v>1.38202</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>14.665892784370868</v>
+        <v>0.27636468593282099</v>
       </c>
       <c r="M14">
         <v>1.44499</v>
@@ -1410,10 +1411,10 @@
         <v>0.56125700000000001</v>
       </c>
       <c r="C15">
-        <v>1.40296</v>
+        <v>1.3630599999999999</v>
       </c>
       <c r="D15">
-        <v>1.3633299999999999</v>
+        <v>1.3734</v>
       </c>
       <c r="E15">
         <v>1.3807799999999999</v>
@@ -1426,14 +1427,14 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>3.7135770086103692</v>
+        <v>0.89504497234164226</v>
       </c>
       <c r="K15">
         <v>1.36931</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.43863187929555547</v>
+        <v>0.29780107761758606</v>
       </c>
       <c r="M15">
         <v>1.3733299999999999</v>
@@ -1451,10 +1452,10 @@
         <v>0.54314300000000004</v>
       </c>
       <c r="C16">
-        <v>1.47536</v>
+        <v>1.40296</v>
       </c>
       <c r="D16">
-        <v>1.4515100000000001</v>
+        <v>1.3633299999999999</v>
       </c>
       <c r="E16">
         <v>1.38873</v>
@@ -1467,14 +1468,14 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>5.8392527925387672</v>
+        <v>0.98007070764668469</v>
       </c>
       <c r="K16">
         <v>1.34996</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>6.9961626168610636</v>
+        <v>0.98068699434472084</v>
       </c>
       <c r="M16">
         <v>1.37906</v>
@@ -1492,10 +1493,10 @@
         <v>0.55364999999999998</v>
       </c>
       <c r="C17">
-        <v>1.37941</v>
+        <v>1.4102300000000001</v>
       </c>
       <c r="D17">
-        <v>1.3862399999999999</v>
+        <v>1.35331</v>
       </c>
       <c r="E17">
         <v>1.42984</v>
@@ -1508,14 +1509,14 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>1.5767610790120365</v>
+        <v>0.64315749913135689</v>
       </c>
       <c r="K17">
         <v>1.3486800000000001</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>2.7094875346260259</v>
+        <v>0.34212412529279412</v>
       </c>
       <c r="M17">
         <v>1.4211100000000001</v>
@@ -1533,10 +1534,10 @@
         <v>0.52372200000000002</v>
       </c>
       <c r="C18">
-        <v>1.5374699999999999</v>
+        <v>1.4484699999999999</v>
       </c>
       <c r="D18">
-        <v>1.5640000000000001</v>
+        <v>1.39808</v>
       </c>
       <c r="E18">
         <v>1.43232</v>
@@ -1549,14 +1550,14 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>6.0833707324370492</v>
+        <v>0.31274379172505629</v>
       </c>
       <c r="K18">
         <v>1.39438</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>10.845268542199495</v>
+        <v>0.26464866102083118</v>
       </c>
       <c r="M18">
         <v>1.4214899999999999</v>
@@ -1574,10 +1575,10 @@
         <v>0.59485600000000005</v>
       </c>
       <c r="C19">
-        <v>1.32572</v>
+        <v>1.35127</v>
       </c>
       <c r="D19">
-        <v>1.30962</v>
+        <v>1.3181099999999999</v>
       </c>
       <c r="E19">
         <v>1.3618699999999999</v>
@@ -1590,14 +1591,14 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>1.1103400416377565</v>
+        <v>0.80146824838854525</v>
       </c>
       <c r="K19">
         <v>1.3124199999999999</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>0.21380247705440614</v>
+        <v>0.43167869145973958</v>
       </c>
       <c r="M19">
         <v>1.3544499999999999</v>
@@ -1615,10 +1616,10 @@
         <v>0.49146699999999999</v>
       </c>
       <c r="C20">
-        <v>1.29976</v>
+        <v>1.4480599999999999</v>
       </c>
       <c r="D20">
-        <v>1.3116300000000001</v>
+        <v>1.40848</v>
       </c>
       <c r="E20">
         <v>1.5224800000000001</v>
@@ -1631,14 +1632,14 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>10.195728442173937</v>
+        <v>1.0897338508072805</v>
       </c>
       <c r="K20">
         <v>1.3953199999999999</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>6.3806103855507885</v>
+        <v>0.93434056571623736</v>
       </c>
       <c r="M20">
         <v>1.51054</v>
@@ -1656,10 +1657,10 @@
         <v>0.50013300000000005</v>
       </c>
       <c r="C21">
-        <v>1.37527</v>
+        <v>1.41218</v>
       </c>
       <c r="D21">
-        <v>1.3888799999999999</v>
+        <v>1.4097500000000001</v>
       </c>
       <c r="E21">
         <v>1.4968600000000001</v>
@@ -1672,14 +1673,14 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>2.6198491932493262</v>
+        <v>6.231500233681201E-2</v>
       </c>
       <c r="K21">
         <v>1.4039900000000001</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>1.0879269627325745</v>
+        <v>0.40858308210675565</v>
       </c>
       <c r="M21">
         <v>1.48088</v>
@@ -1697,10 +1698,10 @@
         <v>0.480244</v>
       </c>
       <c r="C22">
-        <v>1.4103399999999999</v>
+        <v>1.44238</v>
       </c>
       <c r="D22">
-        <v>1.3693</v>
+        <v>1.42855</v>
       </c>
       <c r="E22">
         <v>1.5302199999999999</v>
@@ -1713,14 +1714,14 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>1.2855056227576316</v>
+        <v>0.96437831916693861</v>
       </c>
       <c r="K22">
         <v>1.4138500000000001</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>3.2534871832323149</v>
+        <v>1.0290154352315239</v>
       </c>
       <c r="M22">
         <v>1.51501</v>
@@ -1738,10 +1739,10 @@
         <v>0.462783</v>
       </c>
       <c r="C23">
-        <v>1.39832</v>
+        <v>1.48613</v>
       </c>
       <c r="D23">
-        <v>1.3984000000000001</v>
+        <v>1.45947</v>
       </c>
       <c r="E23">
         <v>1.56016</v>
@@ -1754,14 +1755,14 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>5.0911093311974431</v>
+        <v>1.1183409257601864</v>
       </c>
       <c r="K23">
         <v>1.4561500000000001</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>4.1297196796338653</v>
+        <v>0.22747983857153553</v>
       </c>
       <c r="M23">
         <v>1.54304</v>
@@ -1820,10 +1821,10 @@
         <v>0.45802999999999999</v>
       </c>
       <c r="C25">
-        <v>1.3987000000000001</v>
+        <v>1.46638</v>
       </c>
       <c r="D25">
-        <v>1.39002</v>
+        <v>1.4529399999999999</v>
       </c>
       <c r="E25">
         <v>1.60297</v>
@@ -1836,14 +1837,14 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>4.471294773718455</v>
+        <v>0.35052305677927426</v>
       </c>
       <c r="K25">
         <v>1.4496199999999999</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>4.2877080905310621</v>
+        <v>0.2285022093135291</v>
       </c>
       <c r="M25">
         <v>1.5868100000000001</v>
@@ -1861,10 +1862,10 @@
         <v>0.47719800000000001</v>
       </c>
       <c r="C26">
-        <v>1.3120400000000001</v>
+        <v>1.47536</v>
       </c>
       <c r="D26">
-        <v>1.3391599999999999</v>
+        <v>1.4515100000000001</v>
       </c>
       <c r="E26">
         <v>1.5394699999999999</v>
@@ -1877,14 +1878,14 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>11.975244657175081</v>
+        <v>0.42023641687452445</v>
       </c>
       <c r="K26">
         <v>1.44537</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>7.9310911317542452</v>
+        <v>0.42300776432818477</v>
       </c>
       <c r="M26">
         <v>1.52169</v>
@@ -1902,10 +1903,10 @@
         <v>0.46299200000000001</v>
       </c>
       <c r="C27">
-        <v>1.41218</v>
+        <v>1.4885200000000001</v>
       </c>
       <c r="D27">
-        <v>1.4097500000000001</v>
+        <v>1.46577</v>
       </c>
       <c r="E27">
         <v>1.5829899999999999</v>
@@ -1918,14 +1919,14 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>4.9427126853517311</v>
+        <v>0.43936258834278274</v>
       </c>
       <c r="K27">
         <v>1.4613400000000001</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>3.6595140982443715</v>
+        <v>0.30223022711611874</v>
       </c>
       <c r="M27">
         <v>1.5673999999999999</v>
@@ -1943,10 +1944,10 @@
         <v>0.48868299999999998</v>
       </c>
       <c r="C28">
-        <v>1.61022</v>
+        <v>1.4347700000000001</v>
       </c>
       <c r="D28">
-        <v>1.6145499999999999</v>
+        <v>1.4288400000000001</v>
       </c>
       <c r="E28">
         <v>1.52336</v>
@@ -1959,14 +1960,14 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>11.792177466433161</v>
+        <v>1.0057361110143204</v>
       </c>
       <c r="K28">
         <v>1.42692</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>11.621194760149885</v>
+        <v>0.13437473754935078</v>
       </c>
       <c r="M28">
         <v>1.5047299999999999</v>
@@ -1984,10 +1985,10 @@
         <v>0.58882100000000004</v>
       </c>
       <c r="C29">
-        <v>1.3722399999999999</v>
+        <v>1.3528899999999999</v>
       </c>
       <c r="D29">
-        <v>1.3647499999999999</v>
+        <v>1.3425199999999999</v>
       </c>
       <c r="E29">
         <v>1.3242100000000001</v>
@@ -2000,14 +2001,14 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>2.265638663790579</v>
+        <v>0.86777195485219505</v>
       </c>
       <c r="K29">
         <v>1.3411299999999999</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>1.7307199120718062</v>
+        <v>0.1035366326013767</v>
       </c>
       <c r="M29">
         <v>1.31559</v>
@@ -2025,10 +2026,10 @@
         <v>0.56145900000000004</v>
       </c>
       <c r="C30">
-        <v>1.5991899999999999</v>
+        <v>1.3579600000000001</v>
       </c>
       <c r="D30">
-        <v>1.5671200000000001</v>
+        <v>1.39167</v>
       </c>
       <c r="E30">
         <v>1.3697900000000001</v>
@@ -2041,14 +2042,14 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>15.347769808465531</v>
+        <v>0.31002385931839282</v>
       </c>
       <c r="K30">
         <v>1.38121</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>11.863162999642658</v>
+        <v>0.75161496619169155</v>
       </c>
       <c r="M30">
         <v>1.3576999999999999</v>
@@ -2066,10 +2067,10 @@
         <v>0.61358800000000002</v>
       </c>
       <c r="C31">
-        <v>1.6491800000000001</v>
+        <v>1.29976</v>
       </c>
       <c r="D31">
-        <v>1.6412599999999999</v>
+        <v>1.3116300000000001</v>
       </c>
       <c r="E31">
         <v>1.3232600000000001</v>
@@ -2082,14 +2083,14 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>21.311197079760859</v>
+        <v>0.15695205268665305</v>
       </c>
       <c r="K31">
         <v>1.30504</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>20.485480667292201</v>
+        <v>0.50242827626694231</v>
       </c>
       <c r="M31">
         <v>1.3161799999999999</v>
@@ -2107,10 +2108,10 @@
         <v>0.57495600000000002</v>
       </c>
       <c r="C32">
-        <v>1.4480599999999999</v>
+        <v>1.3689199999999999</v>
       </c>
       <c r="D32">
-        <v>1.40848</v>
+        <v>1.34981</v>
       </c>
       <c r="E32">
         <v>1.36354</v>
@@ -2123,14 +2124,14 @@
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>5.6737980470422507</v>
+        <v>0.22061186921076636</v>
       </c>
       <c r="K32">
         <v>1.3376300000000001</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.0302453708962753</v>
+        <v>0.90234921951977376</v>
       </c>
       <c r="M32">
         <v>1.35548</v>
@@ -2148,10 +2149,10 @@
         <v>0.56220800000000004</v>
       </c>
       <c r="C33">
-        <v>1.3871</v>
+        <v>1.38723</v>
       </c>
       <c r="D33">
-        <v>1.3750599999999999</v>
+        <v>1.3714299999999999</v>
       </c>
       <c r="E33">
         <v>1.37076</v>
@@ -2164,14 +2165,14 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>0.21339485257011565</v>
+        <v>0.22274604787959007</v>
       </c>
       <c r="K33">
         <v>1.3629899999999999</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>0.87777987869620422</v>
+        <v>0.61541602560830688</v>
       </c>
       <c r="M33">
         <v>1.3611599999999999</v>
@@ -2189,10 +2190,10 @@
         <v>0.55940100000000004</v>
       </c>
       <c r="C34">
-        <v>1.5623</v>
+        <v>1.37527</v>
       </c>
       <c r="D34">
-        <v>1.54915</v>
+        <v>1.3888799999999999</v>
       </c>
       <c r="E34">
         <v>1.3478399999999999</v>
@@ -2205,14 +2206,14 @@
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>12.774115086731102</v>
+        <v>0.91182095152224618</v>
       </c>
       <c r="K34">
         <v>1.3738600000000001</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>11.315237388245162</v>
+        <v>1.0814469212602826</v>
       </c>
       <c r="M34">
         <v>1.3380799999999999</v>
@@ -2230,10 +2231,10 @@
         <v>0.571268</v>
       </c>
       <c r="C35">
-        <v>1.62436</v>
+        <v>1.38853</v>
       </c>
       <c r="D35">
-        <v>1.65442</v>
+        <v>1.36757</v>
       </c>
       <c r="E35">
         <v>1.35293</v>
@@ -2246,14 +2247,14 @@
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>15.009603782412769</v>
+        <v>0.57470850467761569</v>
       </c>
       <c r="K35">
         <v>1.3635299999999999</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>17.582596922184216</v>
+        <v>0.29541449432204886</v>
       </c>
       <c r="M35">
         <v>1.3427800000000001</v>
@@ -2271,10 +2272,10 @@
         <v>0.58695799999999998</v>
       </c>
       <c r="C36">
-        <v>1.3630599999999999</v>
+        <v>1.3521099999999999</v>
       </c>
       <c r="D36">
-        <v>1.3734</v>
+        <v>1.3576699999999999</v>
       </c>
       <c r="E36">
         <v>1.33507</v>
@@ -2287,14 +2288,14 @@
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>1.6374921133332281</v>
+        <v>0.84090791429690492</v>
       </c>
       <c r="K36">
         <v>1.3521799999999999</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>1.5450706276394361</v>
+        <v>0.40436925025963566</v>
       </c>
       <c r="M36">
         <v>1.3263400000000001</v>
@@ -2312,10 +2313,10 @@
         <v>0.595642</v>
       </c>
       <c r="C37">
-        <v>1.46638</v>
+        <v>1.3650199999999999</v>
       </c>
       <c r="D37">
-        <v>1.4529399999999999</v>
+        <v>1.34222</v>
       </c>
       <c r="E37">
         <v>1.3179700000000001</v>
@@ -2328,14 +2329,14 @@
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>7.8806312142827988</v>
+        <v>1.0402777981274993</v>
       </c>
       <c r="K37">
         <v>1.3396999999999999</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>7.7938524646578671</v>
+        <v>0.18774865521301112</v>
       </c>
       <c r="M37">
         <v>1.3093999999999999</v>
@@ -2353,10 +2354,10 @@
         <v>0.53423699999999996</v>
       </c>
       <c r="C38">
-        <v>1.38723</v>
+        <v>1.3785000000000001</v>
       </c>
       <c r="D38">
-        <v>1.3714299999999999</v>
+        <v>1.40201</v>
       </c>
       <c r="E38">
         <v>1.4332</v>
@@ -2369,14 +2370,14 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>0.74969543622902945</v>
+        <v>0.12114617337686327</v>
       </c>
       <c r="K38">
         <v>1.39019</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>1.3679152417549645</v>
+        <v>0.84307529903495282</v>
       </c>
       <c r="M38">
         <v>1.4238900000000001</v>
@@ -2394,10 +2395,10 @@
         <v>0.52803900000000004</v>
       </c>
       <c r="C39">
-        <v>1.60398</v>
+        <v>1.3965000000000001</v>
       </c>
       <c r="D39">
-        <v>1.6182300000000001</v>
+        <v>1.4048</v>
       </c>
       <c r="E39">
         <v>1.42502</v>
@@ -2410,14 +2411,14 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>13.879848875921139</v>
+        <v>1.0848549946294304</v>
       </c>
       <c r="K39">
         <v>1.39933</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>13.52712531593161</v>
+        <v>0.38937927107062115</v>
       </c>
       <c r="M39">
         <v>1.4123699999999999</v>
@@ -2435,10 +2436,10 @@
         <v>0.55721600000000004</v>
       </c>
       <c r="C40">
-        <v>1.3965000000000001</v>
+        <v>1.35419</v>
       </c>
       <c r="D40">
-        <v>1.4048</v>
+        <v>1.38198</v>
       </c>
       <c r="E40">
         <v>1.40212</v>
@@ -2451,14 +2452,14 @@
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>3.2552810597923418</v>
+        <v>0.23261137654243391</v>
       </c>
       <c r="K40">
         <v>1.3696200000000001</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>2.5042710706150331</v>
+        <v>0.89436894889939988</v>
       </c>
       <c r="M40">
         <v>1.3946700000000001</v>
@@ -2476,10 +2477,10 @@
         <v>0.553651</v>
       </c>
       <c r="C41">
-        <v>1.3579600000000001</v>
+        <v>1.3722399999999999</v>
       </c>
       <c r="D41">
-        <v>1.39167</v>
+        <v>1.3647499999999999</v>
       </c>
       <c r="E41">
         <v>1.4079699999999999</v>
@@ -2492,14 +2493,14 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>0.12371498424106038</v>
+        <v>0.91820672768611511</v>
       </c>
       <c r="K41">
         <v>1.3609500000000001</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>2.2074198624673849</v>
+        <v>0.27843927459240181</v>
       </c>
       <c r="M41">
         <v>1.3998200000000001</v>
@@ -2517,10 +2518,10 @@
         <v>0.53891699999999998</v>
       </c>
       <c r="C42">
-        <v>1.3161400000000001</v>
+        <v>1.37941</v>
       </c>
       <c r="D42">
-        <v>1.3206</v>
+        <v>1.3862399999999999</v>
       </c>
       <c r="E42">
         <v>1.3999900000000001</v>
@@ -2533,14 +2534,14 @@
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>4.3939094625191712</v>
+        <v>0.39437150665865195</v>
       </c>
       <c r="K42">
         <v>1.3849100000000001</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>4.8697561714372322</v>
+        <v>9.5942982456128187E-2</v>
       </c>
       <c r="M42">
         <v>1.3889</v>
@@ -2558,10 +2559,10 @@
         <v>0.53759299999999999</v>
       </c>
       <c r="C43">
-        <v>1.44238</v>
+        <v>1.3721099999999999</v>
       </c>
       <c r="D43">
-        <v>1.42855</v>
+        <v>1.4030899999999999</v>
       </c>
       <c r="E43">
         <v>1.4016599999999999</v>
@@ -2574,14 +2575,14 @@
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>5.1200099834994921</v>
+        <v>0.26091202600373997</v>
       </c>
       <c r="K43">
         <v>1.4008499999999999</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>1.9390290854362855</v>
+        <v>0.15964763486305369</v>
       </c>
       <c r="M43">
         <v>1.39194</v>
@@ -2599,10 +2600,10 @@
         <v>0.56733100000000003</v>
       </c>
       <c r="C44">
-        <v>1.399</v>
+        <v>1.3571</v>
       </c>
       <c r="D44">
-        <v>1.38836</v>
+        <v>1.3636900000000001</v>
       </c>
       <c r="E44">
         <v>1.3927099999999999</v>
@@ -2615,14 +2616,14 @@
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>3.5611150822015705</v>
+        <v>0.58359737675926071</v>
       </c>
       <c r="K44">
         <v>1.3506199999999999</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>2.7183151344031882</v>
+        <v>0.95842896846058379</v>
       </c>
       <c r="M44">
         <v>1.3855200000000001</v>
@@ -2640,10 +2641,10 @@
         <v>0.511652</v>
       </c>
       <c r="C45">
-        <v>1.30976</v>
+        <v>1.41279</v>
       </c>
       <c r="D45">
-        <v>1.3099099999999999</v>
+        <v>1.4325000000000001</v>
       </c>
       <c r="E45">
         <v>1.44295</v>
@@ -2656,14 +2657,14 @@
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>6.9371487906181235</v>
+        <v>0.86141606325073183</v>
       </c>
       <c r="K45">
         <v>1.42292</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>8.6273102732248841</v>
+        <v>0.668760907504373</v>
       </c>
       <c r="M45">
         <v>1.4266000000000001</v>
@@ -2681,10 +2682,10 @@
         <v>0.53293000000000001</v>
       </c>
       <c r="C46">
-        <v>1.3650199999999999</v>
+        <v>1.399</v>
       </c>
       <c r="D46">
-        <v>1.34222</v>
+        <v>1.38836</v>
       </c>
       <c r="E46">
         <v>1.43662</v>
@@ -2697,14 +2698,14 @@
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>2.2922741058739096</v>
+        <v>0.19228020014296507</v>
       </c>
       <c r="K46">
         <v>1.37706</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>2.5956996617544057</v>
+        <v>0.81390993690397939</v>
       </c>
       <c r="M46">
         <v>1.4212499999999999</v>
@@ -2722,10 +2723,10 @@
         <v>0.39427099999999998</v>
       </c>
       <c r="C47">
-        <v>1.4347700000000001</v>
+        <v>1.61022</v>
       </c>
       <c r="D47">
-        <v>1.4288400000000001</v>
+        <v>1.6145499999999999</v>
       </c>
       <c r="E47">
         <v>1.75945</v>
@@ -2738,14 +2739,14 @@
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>11.092370205677557</v>
+        <v>1.0122840357218257</v>
       </c>
       <c r="K47">
         <v>1.6101000000000001</v>
       </c>
       <c r="L47">
         <f>ABS(D47-K47)/D47 * 100</f>
-        <v>12.685815066767445</v>
+        <v>0.27561859341611245</v>
       </c>
       <c r="M47">
         <v>1.7358199999999999</v>
@@ -2763,10 +2764,10 @@
         <v>0.38587500000000002</v>
       </c>
       <c r="C48">
-        <v>1.393</v>
+        <v>1.62436</v>
       </c>
       <c r="D48">
-        <v>1.3871100000000001</v>
+        <v>1.65442</v>
       </c>
       <c r="E48">
         <v>1.7820400000000001</v>
@@ -2779,14 +2780,14 @@
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>16.335965541995691</v>
+        <v>0.23393828954172877</v>
       </c>
       <c r="K48">
         <v>1.64879</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>18.865122448832459</v>
+        <v>0.34030052828181623</v>
       </c>
       <c r="M48">
         <v>1.7488900000000001</v>
@@ -2804,10 +2805,10 @@
         <v>0.42077500000000001</v>
       </c>
       <c r="C49">
-        <v>1.3521099999999999</v>
+        <v>1.5374699999999999</v>
       </c>
       <c r="D49">
-        <v>1.3576699999999999</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="E49">
         <v>1.7098500000000001</v>
@@ -2820,14 +2821,14 @@
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>13.344328493983484</v>
+        <v>0.32065666321943709</v>
       </c>
       <c r="K49">
         <v>1.5633699999999999</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>15.150957154536817</v>
+        <v>4.0281329923281997E-2</v>
       </c>
       <c r="M49">
         <v>1.6817599999999999</v>
@@ -2845,10 +2846,10 @@
         <v>0.41759099999999999</v>
       </c>
       <c r="C50">
-        <v>1.36921</v>
+        <v>1.56118</v>
       </c>
       <c r="D50">
-        <v>1.33863</v>
+        <v>1.56674</v>
       </c>
       <c r="E50">
         <v>1.722</v>
@@ -2861,14 +2862,14 @@
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>12.924240985677873</v>
+        <v>0.96145223484799747</v>
       </c>
       <c r="K50">
         <v>1.5605100000000001</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>16.57515519598396</v>
+        <v>0.39764096148690636</v>
       </c>
       <c r="M50">
         <v>1.70085</v>
@@ -2886,10 +2887,10 @@
         <v>0.40251999999999999</v>
       </c>
       <c r="C51">
-        <v>1.4484699999999999</v>
+        <v>1.5956399999999999</v>
       </c>
       <c r="D51">
-        <v>1.39808</v>
+        <v>1.6056299999999999</v>
       </c>
       <c r="E51">
         <v>1.7738100000000001</v>
@@ -2902,14 +2903,14 @@
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>9.8517746311625416</v>
+        <v>0.28013837707753464</v>
       </c>
       <c r="K51">
         <v>1.5870299999999999</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>13.514963378347444</v>
+        <v>1.1584237962668829</v>
       </c>
       <c r="M51">
         <v>1.7488900000000001</v>
@@ -2927,10 +2928,10 @@
         <v>0.41036499999999998</v>
       </c>
       <c r="C52">
-        <v>1.32985</v>
+        <v>1.5673699999999999</v>
       </c>
       <c r="D52">
-        <v>1.3237399999999999</v>
+        <v>1.5415399999999999</v>
       </c>
       <c r="E52">
         <v>1.75047</v>
@@ -2943,14 +2944,14 @@
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>16.608640072188603</v>
+        <v>1.0622890574656803</v>
       </c>
       <c r="K52">
         <v>1.5358000000000001</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>16.019762188949503</v>
+        <v>0.37235491780945396</v>
       </c>
       <c r="M52">
         <v>1.7258899999999999</v>
@@ -2968,10 +2969,10 @@
         <v>0.41234500000000002</v>
       </c>
       <c r="C53">
-        <v>1.5673699999999999</v>
+        <v>1.6227</v>
       </c>
       <c r="D53">
-        <v>1.5415399999999999</v>
+        <v>1.5977600000000001</v>
       </c>
       <c r="E53">
         <v>1.7377800000000001</v>
@@ -2984,14 +2985,14 @@
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>3.2844829236236479</v>
+        <v>0.23725888950515384</v>
       </c>
       <c r="K53">
         <v>1.5787199999999999</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>2.4118738404452689</v>
+        <v>1.1916683356699482</v>
       </c>
       <c r="M53">
         <v>1.71319</v>
@@ -3009,10 +3010,10 @@
         <v>0.391121</v>
       </c>
       <c r="C54">
-        <v>1.3528899999999999</v>
+        <v>1.6491800000000001</v>
       </c>
       <c r="D54">
-        <v>1.3425199999999999</v>
+        <v>1.6412599999999999</v>
       </c>
       <c r="E54">
         <v>1.8017700000000001</v>
@@ -3025,14 +3026,14 @@
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>21.595251646475322</v>
+        <v>0.25042748517446178</v>
       </c>
       <c r="K54">
         <v>1.6335599999999999</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>21.678634210291094</v>
+        <v>0.46915174926581044</v>
       </c>
       <c r="M54">
         <v>1.77366</v>
@@ -3050,10 +3051,10 @@
         <v>0.38932299999999997</v>
       </c>
       <c r="C55">
-        <v>1.56118</v>
+        <v>1.6407499999999999</v>
       </c>
       <c r="D55">
-        <v>1.56674</v>
+        <v>1.6489</v>
       </c>
       <c r="E55">
         <v>1.79678</v>
@@ -3066,14 +3067,14 @@
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
-        <v>3.7779115797025349</v>
+        <v>1.2549139113210352</v>
       </c>
       <c r="K55">
         <v>1.6290899999999999</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>3.9796009548489155</v>
+        <v>1.2014069986051372</v>
       </c>
       <c r="M55">
         <v>1.7684299999999999</v>
@@ -3091,10 +3092,10 @@
         <v>0.57522799999999996</v>
       </c>
       <c r="C56">
-        <v>1.3594900000000001</v>
+        <v>1.36921</v>
       </c>
       <c r="D56">
-        <v>1.34474</v>
+        <v>1.33863</v>
       </c>
       <c r="E56">
         <v>1.35378</v>
@@ -3107,14 +3108,14 @@
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>0.21772870708869307</v>
+        <v>0.92608146303342975</v>
       </c>
       <c r="K56">
         <v>1.3355399999999999</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>0.68414712137663014</v>
+        <v>0.23083301584456029</v>
       </c>
       <c r="M56">
         <v>1.34494</v>
@@ -3132,10 +3133,10 @@
         <v>0.59460599999999997</v>
       </c>
       <c r="C57">
-        <v>1.48613</v>
+        <v>1.32985</v>
       </c>
       <c r="D57">
-        <v>1.45947</v>
+        <v>1.3237399999999999</v>
       </c>
       <c r="E57">
         <v>1.3323700000000001</v>
@@ -3148,14 +3149,14 @@
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
-        <v>10.647789897249901</v>
+        <v>0.14738504342594741</v>
       </c>
       <c r="K57">
         <v>1.3196399999999999</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>9.5808752492343192</v>
+        <v>0.30972849653255119</v>
       </c>
       <c r="M57">
         <v>1.3244199999999999</v>
@@ -3173,10 +3174,10 @@
         <v>0.55109600000000003</v>
       </c>
       <c r="C58">
-        <v>1.5956399999999999</v>
+        <v>1.393</v>
       </c>
       <c r="D58">
-        <v>1.6056299999999999</v>
+        <v>1.3871100000000001</v>
       </c>
       <c r="E58">
         <v>1.3744099999999999</v>
@@ -3189,14 +3190,14 @@
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>12.922087688952388</v>
+        <v>0.25484565685570293</v>
       </c>
       <c r="K58">
         <v>1.38415</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>13.79396249447257</v>
+        <v>0.21339331415677729</v>
       </c>
       <c r="M58">
         <v>1.36338</v>
@@ -3214,10 +3215,10 @@
         <v>0.56154000000000004</v>
       </c>
       <c r="C59">
-        <v>1.6139600000000001</v>
+        <v>1.3871</v>
       </c>
       <c r="D59">
-        <v>1.59226</v>
+        <v>1.3750599999999999</v>
       </c>
       <c r="E59">
         <v>1.3589899999999999</v>
@@ -3230,14 +3231,14 @@
       </c>
       <c r="J59">
         <f t="shared" si="0"/>
-        <v>14.388832436987295</v>
+        <v>0.38713863456132197</v>
       </c>
       <c r="K59">
         <v>1.3711100000000001</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>13.889063343926242</v>
+        <v>0.28726019228251115</v>
       </c>
       <c r="M59">
         <v>1.3490599999999999</v>
@@ -3255,10 +3256,10 @@
         <v>0.56510499999999997</v>
       </c>
       <c r="C60">
-        <v>1.3721099999999999</v>
+        <v>1.39158</v>
       </c>
       <c r="D60">
-        <v>1.4030899999999999</v>
+        <v>1.36263</v>
       </c>
       <c r="E60">
         <v>1.3672599999999999</v>
@@ -3271,14 +3272,14 @@
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
-        <v>0.34108052561383689</v>
+        <v>1.0628206786530476</v>
       </c>
       <c r="K60">
         <v>1.3591599999999999</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>3.1309466962204864</v>
+        <v>0.25465460176277377</v>
       </c>
       <c r="M60">
         <v>1.3573</v>
@@ -3296,10 +3297,10 @@
         <v>0.54919099999999998</v>
       </c>
       <c r="C61">
-        <v>1.4390499999999999</v>
+        <v>1.39832</v>
       </c>
       <c r="D61">
-        <v>1.38585</v>
+        <v>1.3984000000000001</v>
       </c>
       <c r="E61">
         <v>1.37087</v>
@@ -3312,14 +3313,14 @@
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
-        <v>3.7615093290712629</v>
+        <v>0.95829280851307841</v>
       </c>
       <c r="K61">
         <v>1.39638</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>0.75982249161164106</v>
+        <v>0.14445080091534129</v>
       </c>
       <c r="M61">
         <v>1.3568499999999999</v>
@@ -3337,10 +3338,10 @@
         <v>0.56226500000000001</v>
       </c>
       <c r="C62">
-        <v>1.38134</v>
+        <v>1.3987000000000001</v>
       </c>
       <c r="D62">
-        <v>1.3859300000000001</v>
+        <v>1.39002</v>
       </c>
       <c r="E62">
         <v>1.3750100000000001</v>
@@ -3353,14 +3354,14 @@
       </c>
       <c r="J62">
         <f t="shared" si="0"/>
-        <v>0.51326972360172307</v>
+        <v>0.7342532351469222</v>
       </c>
       <c r="K62">
         <v>1.3881399999999999</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>0.15945971297250389</v>
+        <v>0.13524985252011509</v>
       </c>
       <c r="M62">
         <v>1.36174</v>
@@ -3378,10 +3379,10 @@
         <v>0.55003400000000002</v>
       </c>
       <c r="C63">
-        <v>1.3785000000000001</v>
+        <v>1.4296599999999999</v>
       </c>
       <c r="D63">
-        <v>1.40201</v>
+        <v>1.3867499999999999</v>
       </c>
       <c r="E63">
         <v>1.38384</v>
@@ -3394,14 +3395,14 @@
       </c>
       <c r="J63">
         <f t="shared" si="0"/>
-        <v>2.7696771853463824</v>
+        <v>0.9079081739714332</v>
       </c>
       <c r="K63">
         <v>1.3830899999999999</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>1.349491087795383</v>
+        <v>0.26392644672796084</v>
       </c>
       <c r="M63">
         <v>1.37341</v>
@@ -3419,10 +3420,10 @@
         <v>0.58319500000000002</v>
       </c>
       <c r="C64">
-        <v>1.5576300000000001</v>
+        <v>1.3966400000000001</v>
       </c>
       <c r="D64">
-        <v>1.58284</v>
+        <v>1.3471599999999999</v>
       </c>
       <c r="E64">
         <v>1.34107</v>
@@ -3435,14 +3436,14 @@
       </c>
       <c r="J64">
         <f t="shared" si="0"/>
-        <v>11.323613438364694</v>
+        <v>1.1019303471188004</v>
       </c>
       <c r="K64">
         <v>1.34355</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>15.117763008263626</v>
+        <v>0.26797113928560018</v>
       </c>
       <c r="M64">
         <v>1.33125</v>
@@ -3460,10 +3461,10 @@
         <v>0.40748200000000001</v>
       </c>
       <c r="C65">
-        <v>1.39158</v>
+        <v>1.61372</v>
       </c>
       <c r="D65">
-        <v>1.36263</v>
+        <v>1.57623</v>
       </c>
       <c r="E65">
         <v>1.7195499999999999</v>
@@ -3476,14 +3477,14 @@
       </c>
       <c r="J65">
         <f t="shared" si="0"/>
-        <v>15.519768895787522</v>
+        <v>0.38234637979327318</v>
       </c>
       <c r="K65">
         <v>1.56271</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>14.683369660142521</v>
+        <v>0.85774284209791574</v>
       </c>
       <c r="M65">
         <v>1.6926699999999999</v>
@@ -3501,10 +3502,10 @@
         <v>0.39135900000000001</v>
       </c>
       <c r="C66">
-        <v>1.5729</v>
+        <v>1.5909199999999999</v>
       </c>
       <c r="D66">
-        <v>1.5622199999999999</v>
+        <v>1.61954</v>
       </c>
       <c r="E66">
         <v>1.7504200000000001</v>
@@ -3517,14 +3518,14 @@
       </c>
       <c r="J66">
         <f t="shared" si="0"/>
-        <v>0.88435374149660428</v>
+        <v>0.25834108566111663</v>
       </c>
       <c r="K66">
         <v>1.61267</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>3.2293787046638829</v>
+        <v>0.42419452437111349</v>
       </c>
       <c r="M66">
         <v>1.7171799999999999</v>
@@ -3542,10 +3543,10 @@
         <v>0.414854</v>
       </c>
       <c r="C67">
-        <v>1.3571</v>
+        <v>1.5576300000000001</v>
       </c>
       <c r="D67">
-        <v>1.3636900000000001</v>
+        <v>1.58284</v>
       </c>
       <c r="E67">
         <v>1.6943999999999999</v>
@@ -3558,14 +3559,14 @@
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J73" si="3">ABS(C67-I67)/C67 * 100</f>
-        <v>13.556849163657802</v>
+        <v>1.0625116362679239</v>
       </c>
       <c r="K67">
         <v>1.56874</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L73" si="4">ABS(D67-K67)/D67 * 100</f>
-        <v>15.036408567929657</v>
+        <v>0.89080387152207441</v>
       </c>
       <c r="M67">
         <v>1.6646300000000001</v>
@@ -3583,10 +3584,10 @@
         <v>0.40354600000000002</v>
       </c>
       <c r="C68">
-        <v>1.6407499999999999</v>
+        <v>1.6139600000000001</v>
       </c>
       <c r="D68">
-        <v>1.6489</v>
+        <v>1.59226</v>
       </c>
       <c r="E68">
         <v>1.75752</v>
@@ -3599,14 +3600,14 @@
       </c>
       <c r="J68">
         <f t="shared" si="3"/>
-        <v>1.8662197165930137</v>
+        <v>0.23730451807975414</v>
       </c>
       <c r="K68">
         <v>1.5872599999999999</v>
       </c>
       <c r="L68">
         <f t="shared" si="4"/>
-        <v>3.7382497422524188</v>
+        <v>0.3140190672377699</v>
       </c>
       <c r="M68">
         <v>1.7371000000000001</v>
@@ -3624,10 +3625,10 @@
         <v>0.38762600000000003</v>
       </c>
       <c r="C69">
-        <v>1.41279</v>
+        <v>1.6540600000000001</v>
       </c>
       <c r="D69">
-        <v>1.4325000000000001</v>
+        <v>1.6097600000000001</v>
       </c>
       <c r="E69">
         <v>1.73529</v>
@@ -3640,14 +3641,14 @@
       </c>
       <c r="J69">
         <f t="shared" si="3"/>
-        <v>15.804896693776143</v>
+        <v>1.087022236194582</v>
       </c>
       <c r="K69">
         <v>1.6055200000000001</v>
       </c>
       <c r="L69">
         <f t="shared" si="4"/>
-        <v>12.078184991273993</v>
+        <v>0.26339330086472651</v>
       </c>
       <c r="M69">
         <v>1.70424</v>
@@ -3665,10 +3666,10 @@
         <v>0.42751099999999997</v>
       </c>
       <c r="C70">
-        <v>1.3689199999999999</v>
+        <v>1.5623</v>
       </c>
       <c r="D70">
-        <v>1.34981</v>
+        <v>1.54915</v>
       </c>
       <c r="E70">
         <v>1.6458900000000001</v>
@@ -3681,14 +3682,14 @@
       </c>
       <c r="J70">
         <f t="shared" si="3"/>
-        <v>13.071618502176907</v>
+        <v>0.92427830762337637</v>
       </c>
       <c r="K70">
         <v>1.5406299999999999</v>
       </c>
       <c r="L70">
         <f t="shared" si="4"/>
-        <v>14.136804439143285</v>
+        <v>0.54997902075332172</v>
       </c>
       <c r="M70">
         <v>1.6219399999999999</v>
@@ -3706,10 +3707,10 @@
         <v>0.410999</v>
       </c>
       <c r="C71">
-        <v>1.2941100000000001</v>
+        <v>1.5991899999999999</v>
       </c>
       <c r="D71">
-        <v>1.3074300000000001</v>
+        <v>1.5671200000000001</v>
       </c>
       <c r="E71">
         <v>1.7239</v>
@@ -3722,14 +3723,14 @@
       </c>
       <c r="J71">
         <f t="shared" si="3"/>
-        <v>22.033675653537948</v>
+        <v>1.246881233624513</v>
       </c>
       <c r="K71">
         <v>1.5647</v>
       </c>
       <c r="L71">
         <f t="shared" si="4"/>
-        <v>19.677535317378357</v>
+        <v>0.15442340088825926</v>
       </c>
       <c r="M71">
         <v>1.70811</v>
@@ -3747,10 +3748,10 @@
         <v>0.40533799999999998</v>
       </c>
       <c r="C72">
-        <v>1.32148</v>
+        <v>1.60398</v>
       </c>
       <c r="D72">
-        <v>1.2957099999999999</v>
+        <v>1.6182300000000001</v>
       </c>
       <c r="E72">
         <v>1.70445</v>
@@ -3763,14 +3764,14 @@
       </c>
       <c r="J72">
         <f t="shared" si="3"/>
-        <v>20.663952538063381</v>
+        <v>0.58791256748837584</v>
       </c>
       <c r="K72">
         <v>1.6008599999999999</v>
       </c>
       <c r="L72">
         <f t="shared" si="4"/>
-        <v>23.550794545075675</v>
+        <v>1.0733950056543327</v>
       </c>
       <c r="M72">
         <v>1.6772199999999999</v>
@@ -3788,10 +3789,10 @@
         <v>0.42965900000000001</v>
       </c>
       <c r="C73">
-        <v>1.4102300000000001</v>
+        <v>1.5729</v>
       </c>
       <c r="D73">
-        <v>1.35331</v>
+        <v>1.5622199999999999</v>
       </c>
       <c r="E73">
         <v>1.6548099999999999</v>
@@ -3804,14 +3805,14 @@
       </c>
       <c r="J73">
         <f t="shared" si="3"/>
-        <v>10.401140239535389</v>
+        <v>1.0165935533091708</v>
       </c>
       <c r="K73">
         <v>1.5553399999999999</v>
       </c>
       <c r="L73">
         <f t="shared" si="4"/>
-        <v>14.928582512506368</v>
+        <v>0.44039891948637178</v>
       </c>
       <c r="M73">
         <v>1.6371599999999999</v>
@@ -3819,6 +3820,20 @@
       <c r="N73">
         <f t="shared" si="5"/>
         <v>1.0665877049328891</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <f t="array" ref="J74">AVERAGE(ABS(J2:J73))</f>
+        <v>0.62042671524350257</v>
+      </c>
+      <c r="L74">
+        <f t="array" ref="L74">AVERAGE(ABS(L2:L73))</f>
+        <v>0.49544739464092058</v>
+      </c>
+      <c r="N74">
+        <f t="array" ref="N74">AVERAGE(ABS(N2:N73))</f>
+        <v>0.9228968326779301</v>
       </c>
     </row>
   </sheetData>
@@ -3865,7 +3880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L91">
+  <conditionalFormatting sqref="L2:L73 L75:L91">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3875,7 +3890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J91">
+  <conditionalFormatting sqref="J1:J91 K74:N74">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3885,7 +3900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N91">
+  <conditionalFormatting sqref="N2:N73 N75:N91">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3914,7 +3929,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
